--- a/download/bulkUserCredentialForNotBookedExam.xlsx
+++ b/download/bulkUserCredentialForNotBookedExam.xlsx
@@ -41,22 +41,22 @@
     <t>Role</t>
   </si>
   <si>
-    <t>ZuMyT409</t>
-  </si>
-  <si>
-    <t>udrovxr30</t>
-  </si>
-  <si>
-    <t>Hqf!&amp;27R</t>
+    <t>sFcqD252</t>
+  </si>
+  <si>
+    <t>mysqexo49</t>
+  </si>
+  <si>
+    <t>psSX#8&amp;2</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>tsplhwEY</t>
-  </si>
-  <si>
-    <t>wKGf</t>
+    <t>WEJzhDQR</t>
+  </si>
+  <si>
+    <t>jsmy</t>
   </si>
   <si>
     <t>Candidate</t>
@@ -466,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23100474</v>
+        <v>231006272</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>

--- a/download/bulkUserCredentialForNotBookedExam.xlsx
+++ b/download/bulkUserCredentialForNotBookedExam.xlsx
@@ -41,22 +41,22 @@
     <t>Role</t>
   </si>
   <si>
-    <t>sFcqD252</t>
-  </si>
-  <si>
-    <t>mysqexo49</t>
-  </si>
-  <si>
-    <t>psSX#8&amp;2</t>
+    <t>ZuMyT409</t>
+  </si>
+  <si>
+    <t>udrovxr30</t>
+  </si>
+  <si>
+    <t>Hqf!&amp;27R</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>WEJzhDQR</t>
-  </si>
-  <si>
-    <t>jsmy</t>
+    <t>tsplhwEY</t>
+  </si>
+  <si>
+    <t>wKGf</t>
   </si>
   <si>
     <t>Candidate</t>
@@ -466,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231006272</v>
+        <v>23100474</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>

--- a/download/bulkUserCredentialForNotBookedExam.xlsx
+++ b/download/bulkUserCredentialForNotBookedExam.xlsx
@@ -41,22 +41,22 @@
     <t>Role</t>
   </si>
   <si>
-    <t>ZuMyT409</t>
-  </si>
-  <si>
-    <t>udrovxr30</t>
-  </si>
-  <si>
-    <t>Hqf!&amp;27R</t>
+    <t>ctrTv372</t>
+  </si>
+  <si>
+    <t>xcdylvi50</t>
+  </si>
+  <si>
+    <t>EFrk&amp;48#</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>tsplhwEY</t>
-  </si>
-  <si>
-    <t>wKGf</t>
+    <t>pgUnTswa</t>
+  </si>
+  <si>
+    <t>uzgK</t>
   </si>
   <si>
     <t>Candidate</t>
@@ -466,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23100474</v>
+        <v>231011251</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>

--- a/download/bulkUserCredentialForNotBookedExam.xlsx
+++ b/download/bulkUserCredentialForNotBookedExam.xlsx
@@ -41,22 +41,22 @@
     <t>Role</t>
   </si>
   <si>
-    <t>ctrTv372</t>
-  </si>
-  <si>
-    <t>xcdylvi50</t>
-  </si>
-  <si>
-    <t>EFrk&amp;48#</t>
+    <t>fhkxk898</t>
+  </si>
+  <si>
+    <t>zexfwlp69</t>
+  </si>
+  <si>
+    <t>ma&amp;3$EC8</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>pgUnTswa</t>
-  </si>
-  <si>
-    <t>uzgK</t>
+    <t>tUZgzeYb</t>
+  </si>
+  <si>
+    <t>ZeiM</t>
   </si>
   <si>
     <t>Candidate</t>
@@ -466,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231011251</v>
+        <v>231027163</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>

--- a/download/bulkUserCredentialForNotBookedExam.xlsx
+++ b/download/bulkUserCredentialForNotBookedExam.xlsx
@@ -41,22 +41,22 @@
     <t>Role</t>
   </si>
   <si>
-    <t>fhkxk898</t>
-  </si>
-  <si>
-    <t>zexfwlp69</t>
-  </si>
-  <si>
-    <t>ma&amp;3$EC8</t>
+    <t>rNNJp810</t>
+  </si>
+  <si>
+    <t>qgfjyfj84</t>
+  </si>
+  <si>
+    <t>xJQ6&amp;%5s</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>tUZgzeYb</t>
-  </si>
-  <si>
-    <t>ZeiM</t>
+    <t>GezVubln</t>
+  </si>
+  <si>
+    <t>QDYm</t>
   </si>
   <si>
     <t>Candidate</t>
@@ -466,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231027163</v>
+        <v>231102296</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>

--- a/download/bulkUserCredentialForNotBookedExam.xlsx
+++ b/download/bulkUserCredentialForNotBookedExam.xlsx
@@ -41,22 +41,22 @@
     <t>Role</t>
   </si>
   <si>
-    <t>rNNJp810</t>
-  </si>
-  <si>
-    <t>qgfjyfj84</t>
-  </si>
-  <si>
-    <t>xJQ6&amp;%5s</t>
+    <t>NFspP583</t>
+  </si>
+  <si>
+    <t>hblzzlx44</t>
+  </si>
+  <si>
+    <t>qj8#&amp;D4M</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>GezVubln</t>
-  </si>
-  <si>
-    <t>QDYm</t>
+    <t>HCYYylXe</t>
+  </si>
+  <si>
+    <t>NfWh</t>
   </si>
   <si>
     <t>Candidate</t>
@@ -466,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231102296</v>
+        <v>23110948</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>

--- a/download/bulkUserCredentialForNotBookedExam.xlsx
+++ b/download/bulkUserCredentialForNotBookedExam.xlsx
@@ -41,22 +41,22 @@
     <t>Role</t>
   </si>
   <si>
-    <t>NFspP583</t>
-  </si>
-  <si>
-    <t>hblzzlx44</t>
-  </si>
-  <si>
-    <t>qj8#&amp;D4M</t>
+    <t>Xlyzb626</t>
+  </si>
+  <si>
+    <t>xgglbtq54</t>
+  </si>
+  <si>
+    <t>AzB5%v$3</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>HCYYylXe</t>
-  </si>
-  <si>
-    <t>NfWh</t>
+    <t>pUNmFVUM</t>
+  </si>
+  <si>
+    <t>QXHF</t>
   </si>
   <si>
     <t>Candidate</t>
@@ -466,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23110948</v>
+        <v>23111036</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
